--- a/biology/Botanique/Pierre_Andrieu_(critique_gastronomique)/Pierre_Andrieu_(critique_gastronomique).xlsx
+++ b/biology/Botanique/Pierre_Andrieu_(critique_gastronomique)/Pierre_Andrieu_(critique_gastronomique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Andrieu, né le 11 janvier 1893 au Havre (Seine-Inférieure) et mort le 27 janvier 1973 dans le 16eme arrondissement de Paris[1], est un critique gastronomique français du XXe siècle. Collaborateur de Curnonsky, il est l'auteur de nombreux ouvrages dans le domaine de la gastronomie et du vin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Andrieu, né le 11 janvier 1893 au Havre (Seine-Inférieure) et mort le 27 janvier 1973 dans le 16eme arrondissement de Paris, est un critique gastronomique français du XXe siècle. Collaborateur de Curnonsky, il est l'auteur de nombreux ouvrages dans le domaine de la gastronomie et du vin.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sachons boire, Paris, Les Presses de France, 1936, 302 p. (ISBN 2402223200 et 9782402223201, présentation en ligne, lire en ligne). L'ouvrage contient un intéressant chapitre sur les bons endroits pour bien boire à Paris, les bonnes tables…
 À l'écoute devant Verdun. Récit du Capitaine H. Morin recueilli par Pierre Andrieu. Denoël. 1938.
